--- a/src/main/resources/expected_data.xlsx
+++ b/src/main/resources/expected_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28020"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhisheksharma/Documents/Health App WS/HA_Operation Theatre/HealthApp_OperationTheatre_PL1_Excel/src/test/java/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhisheksharma/Desktop/Selenium Templets/4_OT/OT_PL2_9TCs/VM-Java-Health-App_Operation-Theatre-Automation-PL2-Selenium_Excel-Solution(9TCs)/src/test/java/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E570EE0C-4A39-3A4C-BD76-D11B2DDBBADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D913D42-F26B-8449-8D57-C5EF5E26CC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" firstSheet="10" activeTab="10" xr2:uid="{311C470D-8C2B-AE43-AE76-12B6CB76B140}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" firstSheet="7" activeTab="9" xr2:uid="{311C470D-8C2B-AE43-AE76-12B6CB76B140}"/>
   </bookViews>
   <sheets>
     <sheet name="healthApp" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,17 @@
     <sheet name="NewSSUPatientRegistrationPopup" sheetId="7" r:id="rId7"/>
     <sheet name="allExpectedCountryOptions" sheetId="8" r:id="rId8"/>
     <sheet name="ProcurementModule" sheetId="9" r:id="rId9"/>
-    <sheet name="operationTheatreModuleStringVal" sheetId="10" r:id="rId10"/>
-    <sheet name="addExternalReferralPageInfo" sheetId="11" r:id="rId11"/>
-    <sheet name="PageTitle" sheetId="12" r:id="rId12"/>
-    <sheet name="percentageValue" sheetId="13" r:id="rId13"/>
-    <sheet name="socialServiceModuleStringValue" sheetId="14" r:id="rId14"/>
-    <sheet name="NewSSUPatientRegistrationForm" sheetId="15" r:id="rId15"/>
-    <sheet name="operationTheatreModule" sheetId="16" r:id="rId16"/>
-    <sheet name="DoctorName" sheetId="17" r:id="rId17"/>
-    <sheet name="TextFieldDatas" sheetId="18" r:id="rId18"/>
-    <sheet name="DoctotModule" sheetId="19" r:id="rId19"/>
-    <sheet name="appointmentModule" sheetId="20" r:id="rId20"/>
-    <sheet name="patientModule" sheetId="21" r:id="rId21"/>
+    <sheet name="addExternalReferralPageInfo" sheetId="11" r:id="rId10"/>
+    <sheet name="PageTitle" sheetId="12" r:id="rId11"/>
+    <sheet name="percentageValue" sheetId="13" r:id="rId12"/>
+    <sheet name="socialServiceModuleStringValue" sheetId="14" r:id="rId13"/>
+    <sheet name="NewSSUPatientRegistrationForm" sheetId="15" r:id="rId14"/>
+    <sheet name="operationTheatreModule" sheetId="16" r:id="rId15"/>
+    <sheet name="DoctorName" sheetId="17" r:id="rId16"/>
+    <sheet name="TextFieldDatas" sheetId="18" r:id="rId17"/>
+    <sheet name="DoctotModule" sheetId="19" r:id="rId18"/>
+    <sheet name="appointmentModule" sheetId="20" r:id="rId19"/>
+    <sheet name="patientModule" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="371">
   <si>
     <t>dasboardTitle</t>
   </si>
@@ -866,15 +865,9 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>surgenNameValue1</t>
-  </si>
-  <si>
     <t>Dr. pooja Mishra</t>
   </si>
   <si>
-    <t>surgenNameValue2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dr. pooja Mishra  </t>
   </si>
   <si>
@@ -983,9 +976,6 @@
     <t>Referrer Name is required</t>
   </si>
   <si>
-    <t xml:space="preserve">remarksValue </t>
-  </si>
-  <si>
     <t>remarks</t>
   </si>
   <si>
@@ -1167,13 +1157,25 @@
   </si>
   <si>
     <t>B negative</t>
+  </si>
+  <si>
+    <t>remarksValue</t>
+  </si>
+  <si>
+    <t>surgenName</t>
+  </si>
+  <si>
+    <t>Dr. p</t>
+  </si>
+  <si>
+    <t>surgenNameValueOnButton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1559,14 +1561,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1582,7 +1584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1598,7 +1600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1606,7 +1608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1626,90 +1628,58 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A373FD48-037B-9C40-8A25-847414E0295F}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8CF3EC-1D4E-304F-9249-24120B641F5D}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="210" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>274</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9124564060</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -1718,66 +1688,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8CF3EC-1D4E-304F-9249-24120B641F5D}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
-  <cols>
-    <col min="1" max="1" width="30.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9124564060</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDE8D13-D3E5-084B-A5B8-753E780A51EF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1785,43 +1695,43 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +1739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8E14D1-C543-9C4B-AD37-7B7B38B1A1A7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1837,26 +1747,26 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1864,7 +1774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91148E8C-1845-4147-9C63-A7ED0E35B264}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1872,39 +1782,39 @@
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>258</v>
@@ -1915,7 +1825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBC200D-68D4-9249-8161-75649AA69985}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -1923,13 +1833,13 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1937,7 +1847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1945,7 +1855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1953,7 +1863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1961,28 +1871,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -1990,106 +1900,179 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A435EB-5F6B-124F-93F7-513C97FCD52C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="174" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" t="s">
         <v>306</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B4" t="s">
         <v>308</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="B5" t="s">
         <v>310</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B6" t="s">
         <v>312</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="B7" t="s">
         <v>314</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="B8" t="s">
         <v>316</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="B9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B10" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2648C716-BB3A-0844-B5E9-7E5043F31388}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2097,18 +2080,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F64412-EFA7-BB4B-8897-375C5DAD4366}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2124,26 +2107,26 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C49B96-FDA8-7B45-89C6-D13817F8607E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2163,35 +2146,159 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="39.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>329</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1C9243-407B-CE4F-996B-0D7979BCAD9E}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>332</v>
+      <c r="B12" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2207,14 +2314,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="2" max="2" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2228,130 +2335,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1C9243-407B-CE4F-996B-0D7979BCAD9E}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
-  <cols>
-    <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113A775C-E35F-7840-B259-B6A77681B93F}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2359,123 +2342,123 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="39.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2491,14 +2474,14 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2506,7 +2489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2514,7 +2497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2522,7 +2505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2530,7 +2513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -2538,7 +2521,7 @@
         <v>9124564060</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2546,7 +2529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -2554,7 +2537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2575,14 +2558,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -2603,14 +2586,14 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -2618,7 +2601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -2626,7 +2609,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -2634,7 +2617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="51">
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -2642,7 +2625,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -2663,13 +2646,13 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2677,7 +2660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -2698,14 +2681,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2713,7 +2696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2721,7 +2704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2729,7 +2712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -2737,7 +2720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2745,7 +2728,7 @@
         <v>7008777971</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -2753,7 +2736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -2761,7 +2744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -2769,7 +2752,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -2777,7 +2760,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -2785,7 +2768,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -2806,973 +2789,973 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>251</v>
       </c>
@@ -3790,12 +3773,12 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>252</v>
       </c>
@@ -3803,7 +3786,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>254</v>
       </c>

--- a/src/main/resources/expected_data.xlsx
+++ b/src/main/resources/expected_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhisheksharma/Desktop/Selenium Templets/4_OT/OT_PL2_9TCs/VM-Java-Health-App_Operation-Theatre-Automation-PL2-Selenium_Excel-Solution(9TCs)/src/test/java/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhisheksharma/Desktop/Selenium Templets/4_OT/OT_PL2_9TCs/VM-Java-Health-App_Operation-Theatre-Automation-PL2-Selenium_Excel-Solution(9TCs)/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D913D42-F26B-8449-8D57-C5EF5E26CC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1D5621-00C3-534C-B339-420FCE474380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" firstSheet="7" activeTab="9" xr2:uid="{311C470D-8C2B-AE43-AE76-12B6CB76B140}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" firstSheet="8" activeTab="14" xr2:uid="{311C470D-8C2B-AE43-AE76-12B6CB76B140}"/>
   </bookViews>
   <sheets>
     <sheet name="healthApp" sheetId="1" r:id="rId1"/>
@@ -1165,10 +1165,10 @@
     <t>surgenName</t>
   </si>
   <si>
-    <t>Dr. p</t>
-  </si>
-  <si>
     <t>surgenNameValueOnButton</t>
+  </si>
+  <si>
+    <t>Dr. pooja</t>
   </si>
 </sst>
 </file>
@@ -1631,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8CF3EC-1D4E-304F-9249-24120B641F5D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1904,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A435EB-5F6B-124F-93F7-513C97FCD52C}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="174" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2055,12 +2055,12 @@
         <v>368</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>270</v>
